--- a/ComCast_CRM_Framework/data/testdata.xlsx
+++ b/ComCast_CRM_Framework/data/testdata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET_25_26\ComCast_CRM_Framework\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SREEHARSH\git\SDET_25\ComCast_CRM_Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433BB54A-D0E5-4249-9ECC-C3E032DBCBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18520" windowHeight="5860" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>TC_ID</t>
   </si>
@@ -84,21 +85,9 @@
     <t>CreateOrgWithInduriesAndType</t>
   </si>
   <si>
-    <t>Test Yantra_3</t>
-  </si>
-  <si>
-    <t>Deepak</t>
-  </si>
-  <si>
-    <t>YES_BANK_</t>
-  </si>
-  <si>
     <t>CreateConatctWith_Suppot_date_mobileTest</t>
   </si>
   <si>
-    <t>Deepak_</t>
-  </si>
-  <si>
     <t>mobileNum</t>
   </si>
   <si>
@@ -109,12 +98,27 @@
   </si>
   <si>
     <t>conatctName</t>
+  </si>
+  <si>
+    <t>Sreeharsha</t>
+  </si>
+  <si>
+    <t>Sreeharsha m Hallur</t>
+  </si>
+  <si>
+    <t>SreeHarsha</t>
+  </si>
+  <si>
+    <t>Google_</t>
+  </si>
+  <si>
+    <t>Amazon_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,11 +470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -529,7 +533,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
@@ -544,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -598,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -609,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -626,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -634,13 +638,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
